--- a/settimana4/giorno02/esercizio 2 giorno 2.xlsx
+++ b/settimana4/giorno02/esercizio 2 giorno 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F1854-610F-4E9C-B2A9-64C9E75B8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B95CF-13EE-5548-BFA0-8409C3766476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="970" windowWidth="19190" windowHeight="9830" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="anagrafica_aziendale" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Amministrazione</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>incentivo 2</t>
+  </si>
+  <si>
+    <t>settore</t>
+  </si>
+  <si>
+    <t>Incentivo</t>
+  </si>
+  <si>
+    <t>Marcomm</t>
+  </si>
+  <si>
+    <t>incentivo 3 extra</t>
+  </si>
+  <si>
+    <t>Anzianità &gt;</t>
+  </si>
+  <si>
+    <t>Anni</t>
+  </si>
+  <si>
+    <t>Fattore Anzianità</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +210,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,11 +273,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,10 +297,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{05E7F11F-6F36-4D5E-B619-68835A6DDD65}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -292,16 +325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -316,8 +349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10048875" y="190500"/>
-          <a:ext cx="2438400" cy="952500"/>
+          <a:off x="12611100" y="2349500"/>
+          <a:ext cx="2794000" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,21 +408,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SECONDA</a:t>
+            <a:t>set</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> PARTE</a:t>
-          </a:r>
-          <a:endParaRPr lang="it-IT" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -698,27 +718,28 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -746,8 +767,11 @@
       <c r="I1" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="J1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -771,10 +795,20 @@
         <f t="shared" ref="G2:G29" ca="1" si="1">DATEDIF(C2,TODAY(),"y")</f>
         <v>8</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H2" s="13">
+        <f ca="1">IF(G2&gt;=10,IF(G2&gt;=20,200,100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <f>IF(D2="Produzione",50,IF(D2="Amministrazione",70,90))</f>
+        <v>50</v>
+      </c>
+      <c r="J2" s="2">
+        <f ca="1">VLOOKUP(D2,$G$35:$H$39,2,FALSE)*IF(G2&gt;=$C$35,IF(G2&gt;=$C$36,IF(G2&gt;=$C$37,IF(G2&gt;=$C$38,IF(G2&gt;=$C$39,$D$39,$D$38),$D$37),$D$36),$D$35),0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -798,10 +832,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H29" ca="1" si="2">IF(G3&gt;=10,IF(G3&gt;=20,200,100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I29" si="3">IF(D3="Produzione",50,IF(D3="Amministrazione",70,90))</f>
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J28" ca="1" si="4">VLOOKUP(D3,$G$35:$H$39,2,FALSE)*IF(G3&gt;=$C$35,IF(G3&gt;=$C$36,IF(G3&gt;=$C$37,IF(G3&gt;=$C$38,IF(G3&gt;=$C$39,$D$39,$D$38),$D$37),$D$36),$D$35),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -825,10 +869,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H4" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -852,10 +906,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H5" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -879,10 +943,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H6" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>99.000000000000014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -906,10 +980,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H7" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -933,10 +1017,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H8" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -958,12 +1052,22 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -981,16 +1085,26 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+        <v>26</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1014,10 +1128,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H11" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1041,10 +1165,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H12" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>99.000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1068,10 +1202,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H13" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1095,10 +1239,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H14" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1122,10 +1276,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H15" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1143,16 +1307,26 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H16" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1176,10 +1350,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H17" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1197,16 +1381,26 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H18" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1230,10 +1424,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H19" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1257,10 +1461,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H20" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1284,10 +1498,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H21" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f>IF(D21="Produzione",50,IF(D21="Amministrazione",70,90))</f>
+        <v>50</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1309,12 +1533,22 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+        <v>2</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -1338,10 +1572,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H23" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1365,10 +1609,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H24" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1392,10 +1646,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H25" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1419,10 +1683,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H26" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1446,10 +1720,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="H27" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1471,12 +1755,22 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1494,14 +1788,123 @@
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="2">
+        <f ca="1">VLOOKUP(D29,$G$35:$H$39,2,FALSE)*IF(G29&gt;=$C$35,IF(G29&gt;=$C$36,IF(G29&gt;=$C$37,IF(G29&gt;=$C$38,IF(G29&gt;=$C$39,$D$39,$D$38),$D$37),$D$36),$D$35),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>30</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="17">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
